--- a/8/5/3/Exportaciones 2003 a 2021 - Trimestral.xlsx
+++ b/8/5/3/Exportaciones 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Serie</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2967,31 +2970,63 @@
         <v>82</v>
       </c>
       <c r="B74">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="C74">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="D74">
-        <v>426</v>
+        <v>382</v>
       </c>
       <c r="E74">
         <v>23</v>
       </c>
       <c r="F74">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="G74">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H74">
-        <v>550</v>
+        <v>497</v>
       </c>
       <c r="I74">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J74">
-        <v>1590</v>
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="B75">
+        <v>655</v>
+      </c>
+      <c r="C75">
+        <v>226</v>
+      </c>
+      <c r="D75">
+        <v>429</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>182</v>
+      </c>
+      <c r="G75">
+        <v>128</v>
+      </c>
+      <c r="H75">
+        <v>421</v>
+      </c>
+      <c r="I75">
+        <v>99</v>
+      </c>
+      <c r="J75">
+        <v>1487</v>
       </c>
     </row>
   </sheetData>
